--- a/Tether_Combined_Predictions.xlsx
+++ b/Tether_Combined_Predictions.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,19 +673,19 @@
         <v>16084.993428</v>
       </c>
       <c r="F7" t="n">
-        <v>16088.211714</v>
+        <v>16087.675333</v>
       </c>
       <c r="G7" t="n">
         <v>16087.675333</v>
       </c>
       <c r="H7" t="n">
-        <v>16088.211714</v>
+        <v>16087.675333</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.5363809999998921</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.003334000133359335</v>
       </c>
       <c r="K7" t="inlineStr"/>
     </row>
@@ -706,19 +706,19 @@
         <v>16070.511141</v>
       </c>
       <c r="F8" t="n">
-        <v>16086.2807424</v>
+        <v>16086.602571</v>
       </c>
       <c r="G8" t="n">
         <v>16086.602571</v>
       </c>
       <c r="H8" t="n">
-        <v>16086.2807424</v>
+        <v>16086.602571</v>
       </c>
       <c r="I8" t="n">
-        <v>-6.114743399999497</v>
+        <v>-6.436571999998705</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.03802661863304</v>
+        <v>-0.04002801961372156</v>
       </c>
       <c r="K8" t="inlineStr"/>
     </row>
@@ -739,19 +739,19 @@
         <v>16073.729427</v>
       </c>
       <c r="F9" t="n">
-        <v>16084.3497708</v>
+        <v>16085.7979995</v>
       </c>
       <c r="G9" t="n">
         <v>16085.7979995</v>
       </c>
       <c r="H9" t="n">
-        <v>16084.3497708</v>
+        <v>16085.7979995</v>
       </c>
       <c r="I9" t="n">
-        <v>-4.183771800000613</v>
+        <v>-5.632000499999776</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02601821274892806</v>
+        <v>-0.03502451716201202</v>
       </c>
       <c r="K9" t="inlineStr"/>
     </row>
@@ -772,19 +772,19 @@
         <v>16080.165999</v>
       </c>
       <c r="F10" t="n">
-        <v>16086.9243996</v>
+        <v>16087.138952</v>
       </c>
       <c r="G10" t="n">
         <v>16087.138952</v>
       </c>
       <c r="H10" t="n">
-        <v>16086.9243996</v>
+        <v>16087.138952</v>
       </c>
       <c r="I10" t="n">
-        <v>10.94217240000035</v>
+        <v>10.72762000000148</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06797281087565188</v>
+        <v>0.06664001066241089</v>
       </c>
       <c r="K10" t="inlineStr"/>
     </row>
@@ -805,19 +805,19 @@
         <v>16093.039143</v>
       </c>
       <c r="F11" t="n">
-        <v>16089.820857</v>
+        <v>16088.6944569</v>
       </c>
       <c r="G11" t="n">
         <v>16088.6944569</v>
       </c>
       <c r="H11" t="n">
-        <v>16089.820857</v>
+        <v>16088.6944569</v>
       </c>
       <c r="I11" t="n">
-        <v>12.87314399999741</v>
+        <v>13.99954409999918</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07994403917256311</v>
+        <v>0.08693914260017481</v>
       </c>
       <c r="K11" t="inlineStr"/>
     </row>
@@ -838,19 +838,19 @@
         <v>16091.43</v>
       </c>
       <c r="F12" t="n">
-        <v>16091.1081714</v>
+        <v>16089.23571409091</v>
       </c>
       <c r="G12" t="n">
         <v>16089.23571409091</v>
       </c>
       <c r="H12" t="n">
-        <v>16091.1081714</v>
+        <v>16089.23571409091</v>
       </c>
       <c r="I12" t="n">
-        <v>3.540114600000379</v>
+        <v>5.412571909091639</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02199560087982639</v>
+        <v>0.0336296377088264</v>
       </c>
       <c r="K12" t="inlineStr"/>
     </row>
@@ -871,19 +871,19 @@
         <v>16093.039143</v>
       </c>
       <c r="F13" t="n">
-        <v>16094.648286</v>
+        <v>16089.95495225</v>
       </c>
       <c r="G13" t="n">
         <v>16089.95495225</v>
       </c>
       <c r="H13" t="n">
-        <v>16094.648286</v>
+        <v>16089.95495225</v>
       </c>
       <c r="I13" t="n">
-        <v>3.218286000001171</v>
+        <v>7.911619750000682</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01999200319872779</v>
+        <v>0.04914700786352549</v>
       </c>
       <c r="K13" t="inlineStr"/>
     </row>
@@ -904,19 +904,19 @@
         <v>16089.820857</v>
       </c>
       <c r="F14" t="n">
-        <v>16097.2229148</v>
+        <v>16090.19219769231</v>
       </c>
       <c r="G14" t="n">
         <v>16090.19219769231</v>
       </c>
       <c r="H14" t="n">
-        <v>16097.2229148</v>
+        <v>16090.19219769231</v>
       </c>
       <c r="I14" t="n">
-        <v>-4.183771799998794</v>
+        <v>2.846945307692295</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.02599740025996651</v>
+        <v>0.01769053863844377</v>
       </c>
       <c r="K14" t="inlineStr"/>
     </row>
@@ -937,19 +937,19 @@
         <v>16089.820857</v>
       </c>
       <c r="F15" t="n">
-        <v>16096.257429</v>
+        <v>16090.39555092857</v>
       </c>
       <c r="G15" t="n">
         <v>16090.39555092857</v>
       </c>
       <c r="H15" t="n">
-        <v>16096.257429</v>
+        <v>16090.39555092857</v>
       </c>
       <c r="I15" t="n">
-        <v>-3.218285999999352</v>
+        <v>2.643592071428429</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01999800019997598</v>
+        <v>0.01642692873569698</v>
       </c>
       <c r="K15" t="inlineStr"/>
     </row>
@@ -970,19 +970,19 @@
         <v>16089.820857</v>
       </c>
       <c r="F16" t="n">
-        <v>16093.6828002</v>
+        <v>16090.357238</v>
       </c>
       <c r="G16" t="n">
         <v>16090.357238</v>
       </c>
       <c r="H16" t="n">
-        <v>16093.6828002</v>
+        <v>16090.357238</v>
       </c>
       <c r="I16" t="n">
-        <v>-3.861943199999587</v>
+        <v>-0.5363809999998921</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.02400240024002143</v>
+        <v>-0.003333666700002663</v>
       </c>
       <c r="K16" t="inlineStr"/>
     </row>
@@ -1003,19 +1003,19 @@
         <v>16089.820857</v>
       </c>
       <c r="F17" t="n">
-        <v>16093.6828002</v>
+        <v>16090.6254285</v>
       </c>
       <c r="G17" t="n">
         <v>16090.6254285</v>
       </c>
       <c r="H17" t="n">
-        <v>16093.6828002</v>
+        <v>16090.6254285</v>
       </c>
       <c r="I17" t="n">
-        <v>0.965485799999442</v>
+        <v>4.0228575000001</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005998800239948542</v>
+        <v>0.02499500099980066</v>
       </c>
       <c r="K17" t="inlineStr"/>
     </row>
@@ -1036,19 +1036,19 @@
         <v>16086.602571</v>
       </c>
       <c r="F18" t="n">
-        <v>16092.3954858</v>
+        <v>16090.67275623529</v>
       </c>
       <c r="G18" t="n">
         <v>16090.67275623529</v>
       </c>
       <c r="H18" t="n">
-        <v>16092.3954858</v>
+        <v>16090.67275623529</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.9654858000012609</v>
+        <v>0.7572437647068</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.006000000000007836</v>
+        <v>0.004705882352946879</v>
       </c>
       <c r="K18" t="inlineStr"/>
     </row>
@@ -1069,19 +1069,19 @@
         <v>16089.820857</v>
       </c>
       <c r="F19" t="n">
-        <v>16092.3954858</v>
+        <v>16090.80422216667</v>
       </c>
       <c r="G19" t="n">
         <v>16090.80422216667</v>
       </c>
       <c r="H19" t="n">
-        <v>16092.3954858</v>
+        <v>16090.80422216667</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6436572000020533</v>
+        <v>2.234920833332581</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003999600040008759</v>
+        <v>0.01388750013887032</v>
       </c>
       <c r="K19" t="inlineStr"/>
     </row>
@@ -1102,19 +1102,19 @@
         <v>16084.993428</v>
       </c>
       <c r="F20" t="n">
-        <v>16091.7518286</v>
+        <v>16091.07241266667</v>
       </c>
       <c r="G20" t="n">
         <v>16090.75246610526</v>
       </c>
       <c r="H20" t="n">
-        <v>16091.7518286</v>
+        <v>16091.07241266667</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.930971600000703</v>
+        <v>-1.251555666667628</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.01200120012001637</v>
+        <v>-0.007778555633347083</v>
       </c>
       <c r="K20" t="inlineStr"/>
     </row>
@@ -1135,19 +1135,19 @@
         <v>16089.820857</v>
       </c>
       <c r="F21" t="n">
-        <v>16091.7518286</v>
+        <v>16091.07241266666</v>
       </c>
       <c r="G21" t="n">
         <v>16090.70588565</v>
       </c>
       <c r="H21" t="n">
-        <v>16091.7518286</v>
+        <v>16091.07241266666</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.930971600000703</v>
+        <v>-1.25155566666399</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01200120012001637</v>
+        <v>-0.007778555633324473</v>
       </c>
       <c r="K21" t="inlineStr"/>
     </row>
@@ -1168,19 +1168,19 @@
         <v>16081.775142</v>
       </c>
       <c r="F22" t="n">
-        <v>16090.1426856</v>
+        <v>16090.893619</v>
       </c>
       <c r="G22" t="n">
         <v>16090.7863428</v>
       </c>
       <c r="H22" t="n">
-        <v>16090.1426856</v>
+        <v>16090.893619</v>
       </c>
       <c r="I22" t="n">
-        <v>-3.540114600000379</v>
+        <v>-4.291048000000956</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.02200660198059654</v>
+        <v>-0.02667466906739283</v>
       </c>
       <c r="K22" t="inlineStr"/>
     </row>
@@ -1201,19 +1201,19 @@
         <v>16086.602571</v>
       </c>
       <c r="F23" t="n">
-        <v>16091.43</v>
+        <v>16091.60879366667</v>
       </c>
       <c r="G23" t="n">
         <v>16091.18862855</v>
       </c>
       <c r="H23" t="n">
-        <v>16091.43</v>
+        <v>16091.60879366667</v>
       </c>
       <c r="I23" t="n">
-        <v>6.436571999998705</v>
+        <v>6.2577783333345</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03998400639743298</v>
+        <v>0.03887333955307491</v>
       </c>
       <c r="K23" t="inlineStr"/>
     </row>
@@ -1234,19 +1234,19 @@
         <v>16089.820857</v>
       </c>
       <c r="F24" t="n">
-        <v>16091.43</v>
+        <v>16091.87698416667</v>
       </c>
       <c r="G24" t="n">
         <v>16091.34954285</v>
       </c>
       <c r="H24" t="n">
-        <v>16091.43</v>
+        <v>16091.87698416667</v>
       </c>
       <c r="I24" t="n">
-        <v>1.609143000001495</v>
+        <v>1.162158833332796</v>
       </c>
       <c r="J24" t="n">
-        <v>0.009999000099999291</v>
+        <v>0.007221500072211663</v>
       </c>
       <c r="K24" t="inlineStr"/>
     </row>
@@ -1267,19 +1267,19 @@
         <v>16091.43</v>
       </c>
       <c r="F25" t="n">
-        <v>16093.039143</v>
+        <v>16092.41336516667</v>
       </c>
       <c r="G25" t="n">
         <v>16091.99320005</v>
       </c>
       <c r="H25" t="n">
-        <v>16093.039143</v>
+        <v>16092.41336516667</v>
       </c>
       <c r="I25" t="n">
-        <v>4.827428999999029</v>
+        <v>5.453206833333752</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02998800479807473</v>
+        <v>0.03387533875339013</v>
       </c>
       <c r="K25" t="inlineStr"/>
     </row>
@@ -1300,19 +1300,19 @@
         <v>16093.039143</v>
       </c>
       <c r="F26" t="n">
-        <v>16094.0046288</v>
+        <v>16093.21793666667</v>
       </c>
       <c r="G26" t="n">
         <v>16092.31502865</v>
       </c>
       <c r="H26" t="n">
-        <v>16094.0046288</v>
+        <v>16093.21793666667</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6436571999984153</v>
+        <v>1.430349333330014</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00399920015995816</v>
+        <v>0.008887111466574945</v>
       </c>
       <c r="K26" t="inlineStr"/>
     </row>
@@ -1333,19 +1333,19 @@
         <v>16089.820857</v>
       </c>
       <c r="F27" t="n">
-        <v>16094.648286</v>
+        <v>16093.75431766667</v>
       </c>
       <c r="G27" t="n">
         <v>16092.3954858</v>
       </c>
       <c r="H27" t="n">
-        <v>16094.648286</v>
+        <v>16093.75431766667</v>
       </c>
       <c r="I27" t="n">
-        <v>-4.827428999999029</v>
+        <v>-3.933460666668907</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.03000300030002397</v>
+        <v>-0.0244468891333717</v>
       </c>
       <c r="K27" t="inlineStr"/>
     </row>
@@ -1366,19 +1366,19 @@
         <v>16089.820857</v>
       </c>
       <c r="F28" t="n">
-        <v>16093.6828002</v>
+        <v>16093.48612716667</v>
       </c>
       <c r="G28" t="n">
         <v>16093.039143</v>
       </c>
       <c r="H28" t="n">
-        <v>16093.6828002</v>
+        <v>16093.48612716667</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.6436572000002343</v>
+        <v>-0.4469841666668799</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.003999600039997457</v>
+        <v>-0.002777500027776325</v>
       </c>
       <c r="K28" t="inlineStr"/>
     </row>
@@ -1399,19 +1399,19 @@
         <v>16081.775142</v>
       </c>
       <c r="F29" t="n">
-        <v>16092.7173144</v>
+        <v>16092.68155566667</v>
       </c>
       <c r="G29" t="n">
         <v>16093.44142875</v>
       </c>
       <c r="H29" t="n">
-        <v>16092.7173144</v>
+        <v>16092.68155566667</v>
       </c>
       <c r="I29" t="n">
-        <v>-4.50560040000164</v>
+        <v>-4.46984166666698</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.02800560112023424</v>
+        <v>-0.02778333444466866</v>
       </c>
       <c r="K29" t="inlineStr"/>
     </row>
@@ -1432,19 +1432,19 @@
         <v>16083.384285</v>
       </c>
       <c r="F30" t="n">
-        <v>16089.820857</v>
+        <v>16092.05577783334</v>
       </c>
       <c r="G30" t="n">
         <v>16092.7173144</v>
       </c>
       <c r="H30" t="n">
-        <v>16089.820857</v>
+        <v>16092.05577783334</v>
       </c>
       <c r="I30" t="n">
-        <v>-6.436572000002343</v>
+        <v>-8.671492833334923</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.04002001000501707</v>
+        <v>-0.05391584681230492</v>
       </c>
       <c r="K30" t="inlineStr"/>
     </row>
@@ -1465,19 +1465,19 @@
         <v>16073.729427</v>
       </c>
       <c r="F31" t="n">
-        <v>16087.8898854</v>
+        <v>16091.34060316666</v>
       </c>
       <c r="G31" t="n">
         <v>16091.83228575</v>
       </c>
       <c r="H31" t="n">
-        <v>16087.8898854</v>
+        <v>16091.34060316666</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.896457400000145</v>
+        <v>-6.347175166663874</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.01800720288115336</v>
+        <v>-0.03946022853584143</v>
       </c>
       <c r="K31" t="inlineStr"/>
     </row>
@@ -1498,19 +1498,19 @@
         <v>16080.165999</v>
       </c>
       <c r="F32" t="n">
-        <v>16086.602571</v>
+        <v>16090.80422216667</v>
       </c>
       <c r="G32" t="n">
         <v>16091.2690857</v>
       </c>
       <c r="H32" t="n">
-        <v>16086.602571</v>
+        <v>16090.80422216667</v>
       </c>
       <c r="I32" t="n">
-        <v>-3.218285999999352</v>
+        <v>-7.419937166667296</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.02001000500249723</v>
+        <v>-0.04613417820021513</v>
       </c>
       <c r="K32" t="inlineStr"/>
     </row>
@@ -1525,12 +1525,12 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>16089.5526665</v>
+        <v>16091.5756602981</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>16087.2265625</v>
+        <v>16090.12890625</v>
       </c>
     </row>
     <row r="34">
@@ -1544,12 +1544,12 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>16089.35599346667</v>
+        <v>16091.67837332447</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>16087.607421875</v>
+        <v>16090.1650390625</v>
       </c>
     </row>
     <row r="35">
@@ -1563,12 +1563,12 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>16088.76299447222</v>
+        <v>16091.75331271135</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>16087.833984375</v>
+        <v>16090.392578125</v>
       </c>
     </row>
     <row r="36">
@@ -1582,12 +1582,12 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>16088.48785088519</v>
+        <v>16091.81661921652</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>16087.912109375</v>
+        <v>16090.658203125</v>
       </c>
     </row>
     <row r="37">
@@ -1601,13 +1601,277 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>16088.54165453488</v>
+        <v>16091.88015445265</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>16087.9287109375</v>
-      </c>
+        <v>16090.919921875</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>16091.94012642749</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>16091.166015625</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>16091.98895199253</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>16091.3896484375</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>16092.039760671</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>16091.5908203125</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>16092.10275805781</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>16091.76953125</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>16092.1320718356</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>16091.92578125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>16092.1470403328</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>16092.0634765625</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>16092.13381105192</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>16092.18359375</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>16092.07605553109</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>16092.2861328125</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>16091.98468618076</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>16092.376953125</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>16091.9008540578</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>16092.45703125</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45452</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>16091.85535228244</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>16092.525390625</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>16091.84240873896</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>16092.5859375</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>16091.86813831942</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>16092.6396484375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>16091.92548809485</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
